--- a/Java время.xlsx
+++ b/Java время.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A59E2-79CF-4AFF-A8A5-7C201DA5E082}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADC3081-C716-4E53-8D95-75330EE6A3BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="2745" windowWidth="21600" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -105,62 +105,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Время парсинга</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
